--- a/task/task 2/category definition/385_quesions_dataset.xlsx
+++ b/task/task 2/category definition/385_quesions_dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Adelaide\MyAdelaide\project\OS1C\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Adelaide\MyAdelaide\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB1647F-C1A4-4D2B-A05A-AE70A9E968C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E7AB4E-02AC-4528-AC40-A0916751C7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{1281FBE6-BB27-44AE-9E9B-5A39205D81C2}"/>
   </bookViews>
@@ -8767,13 +8767,11 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF1F2328"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -8792,13 +8790,11 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
